--- a/cyautomation/cyschoolhouse/input_files/section-creator-input.xlsx
+++ b/cyautomation/cyschoolhouse/input_files/section-creator-input.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>School</t>
   </si>
@@ -27,9 +27,6 @@
     <t>ACM</t>
   </si>
   <si>
-    <t>Section</t>
-  </si>
-  <si>
     <t>City Year Los Angeles</t>
   </si>
   <si>
@@ -40,6 +37,33 @@
   </si>
   <si>
     <t>ELA</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Coordinator_Role</t>
+  </si>
+  <si>
+    <t>GradeLevel</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>SectionName</t>
+  </si>
+  <si>
+    <t>Tutoring: Literacy</t>
+  </si>
+  <si>
+    <t>Tutoring: Math</t>
+  </si>
+  <si>
+    <t>Elementary</t>
+  </si>
+  <si>
+    <t>First Year</t>
   </si>
 </sst>
 </file>
@@ -846,20 +870,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H9" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -867,29 +895,59 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cyautomation/cyschoolhouse/input_files/section-creator-input.xlsx
+++ b/cyautomation/cyschoolhouse/input_files/section-creator-input.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aperusse\GitHub\cy-automation-library\cyautomation\cyschoolhouse\input_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLuedtke\City Year\Chicago Eval Team - Documents\Python Scripts\cy-automation-library\cyautomation\cyschoolhouse\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="section-creator-input" sheetId="1" r:id="rId1"/>
+    <sheet name="Validation Options" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>School</t>
   </si>
@@ -27,18 +28,6 @@
     <t>ACM</t>
   </si>
   <si>
-    <t>City Year Los Angeles</t>
-  </si>
-  <si>
-    <t>Alexander Perusse</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>ELA</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -60,10 +49,70 @@
     <t>Tutoring: Math</t>
   </si>
   <si>
-    <t>Elementary</t>
-  </si>
-  <si>
-    <t>First Year</t>
+    <t>Start_Date</t>
+  </si>
+  <si>
+    <t>End_Date</t>
+  </si>
+  <si>
+    <t>50 Acts of Greatness</t>
+  </si>
+  <si>
+    <t>50 Acts of Leadership</t>
+  </si>
+  <si>
+    <t>Coaching: Attendance</t>
+  </si>
+  <si>
+    <t>DESSA</t>
+  </si>
+  <si>
+    <t>Enrichment</t>
+  </si>
+  <si>
+    <t>Homework Assistance</t>
+  </si>
+  <si>
+    <t>Math Inventory</t>
+  </si>
+  <si>
+    <t>SEL Check In Check Out</t>
+  </si>
+  <si>
+    <t>In School</t>
+  </si>
+  <si>
+    <t>In_School_or_Extended_Learning</t>
+  </si>
+  <si>
+    <t>Brian Piccolo Elementary School of Excellence</t>
+  </si>
+  <si>
+    <t>Alfonso Navarrete-Mojica</t>
+  </si>
+  <si>
+    <t>Ariana Buscani</t>
+  </si>
+  <si>
+    <t>Chloe Leguisamon</t>
+  </si>
+  <si>
+    <t>Eveliz Maldonado</t>
+  </si>
+  <si>
+    <t>Julia Dinverno</t>
+  </si>
+  <si>
+    <t>Leticia Vargas</t>
+  </si>
+  <si>
+    <t>Sarah Mortensen</t>
+  </si>
+  <si>
+    <t>Saul Zamora</t>
+  </si>
+  <si>
+    <t>Extended Learning</t>
   </si>
 </sst>
 </file>
@@ -547,8 +596,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -605,6 +655,470 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Control 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Control 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Control 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Control 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Control 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Control 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Control 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>60960</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Control 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -870,24 +1384,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H8:H9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -895,62 +1410,707 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1">
+        <v>42983</v>
+      </c>
+      <c r="J2" s="1">
+        <v>43259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1">
+        <v>42983</v>
+      </c>
+      <c r="J3" s="1">
+        <v>43259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1">
+        <v>42983</v>
+      </c>
+      <c r="J4" s="1">
+        <v>43259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1">
+        <v>42983</v>
+      </c>
+      <c r="J5" s="1">
+        <v>43259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1">
+        <v>42983</v>
+      </c>
+      <c r="J6" s="1">
+        <v>43259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1">
+        <v>42983</v>
+      </c>
+      <c r="J7" s="1">
+        <v>43259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1">
+        <v>42983</v>
+      </c>
+      <c r="J8" s="1">
+        <v>43259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1">
+        <v>42983</v>
+      </c>
+      <c r="J9" s="1">
+        <v>43259</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+      <formula1>"In School, Extended Learning"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J1048576">
+      <formula1>42948</formula1>
+      <formula2>44044</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Validation Options'!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1033" r:id="rId4" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1033" r:id="rId4" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId6" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1032" r:id="rId6" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId7" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId7" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId8" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId8" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId10" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId10" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId11" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId11" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId12" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId12" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId13" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId13" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId14" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId14" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001201BD01B86F504FB80213EF5A4287E0" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b362691cff1f959fb8545d1af2189da2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75f0b8e9-b589-4569-9a93-0e244518901c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5030fb679e9bb7633633f3607fec741" ns2:_="">
+    <xsd:import namespace="75f0b8e9-b589-4569-9a93-0e244518901c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="75f0b8e9-b589-4569-9a93-0e244518901c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33D88E9C-85D7-4C04-9A36-33FAD80C79D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75f0b8e9-b589-4569-9a93-0e244518901c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53E850A9-CBCB-45D9-ABD8-A4866B91A60E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0212AA0-43E2-4BC2-A357-30F936639E60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/cyautomation/cyschoolhouse/input_files/section-creator-input.xlsx
+++ b/cyautomation/cyschoolhouse/input_files/section-creator-input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLuedtke\City Year\Chicago Eval Team - Documents\Python Scripts\cy-automation-library\cyautomation\cyschoolhouse\input_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLuedtke\GitHub\cy-automation-library\cyautomation\cyschoolhouse\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>School</t>
   </si>
@@ -83,33 +83,6 @@
   </si>
   <si>
     <t>In_School_or_Extended_Learning</t>
-  </si>
-  <si>
-    <t>Brian Piccolo Elementary School of Excellence</t>
-  </si>
-  <si>
-    <t>Alfonso Navarrete-Mojica</t>
-  </si>
-  <si>
-    <t>Ariana Buscani</t>
-  </si>
-  <si>
-    <t>Chloe Leguisamon</t>
-  </si>
-  <si>
-    <t>Eveliz Maldonado</t>
-  </si>
-  <si>
-    <t>Julia Dinverno</t>
-  </si>
-  <si>
-    <t>Leticia Vargas</t>
-  </si>
-  <si>
-    <t>Sarah Mortensen</t>
-  </si>
-  <si>
-    <t>Saul Zamora</t>
   </si>
   <si>
     <t>Extended Learning</t>
@@ -596,9 +569,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1384,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,166 +1404,6 @@
       </c>
       <c r="J1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1">
-        <v>42983</v>
-      </c>
-      <c r="J2" s="1">
-        <v>43259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1">
-        <v>42983</v>
-      </c>
-      <c r="J3" s="1">
-        <v>43259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1">
-        <v>42983</v>
-      </c>
-      <c r="J4" s="1">
-        <v>43259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1">
-        <v>42983</v>
-      </c>
-      <c r="J5" s="1">
-        <v>43259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1">
-        <v>42983</v>
-      </c>
-      <c r="J6" s="1">
-        <v>43259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1">
-        <v>42983</v>
-      </c>
-      <c r="J7" s="1">
-        <v>43259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="1">
-        <v>42983</v>
-      </c>
-      <c r="J8" s="1">
-        <v>43259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="1">
-        <v>42983</v>
-      </c>
-      <c r="J9" s="1">
-        <v>43259</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1467,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">

--- a/cyautomation/cyschoolhouse/input_files/section-creator-input.xlsx
+++ b/cyautomation/cyschoolhouse/input_files/section-creator-input.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>School</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Extended Learning</t>
+  </si>
+  <si>
+    <t>Target_Dosage</t>
   </si>
 </sst>
 </file>
@@ -569,8 +572,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1356,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1372,9 +1376,10 @@
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" customWidth="1"/>
     <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1405,15 +1410,93 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"In School, Extended Learning"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J1048576">
       <formula1>42948</formula1>
       <formula2>44044</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Enter a number." sqref="K2:K1048576">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1438,12 +1521,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1518,19 +1602,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId4" name="Control 9">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
@@ -1538,12 +1622,162 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId4" name="Control 9"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId6" name="Control 8">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId7" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId8" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId8" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId9" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId9" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId10" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId10" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1031" r:id="rId11" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1031" r:id="rId11" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1032" r:id="rId12" name="Control 8">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1563,24 +1797,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId6" name="Control 8"/>
+        <control shapeId="1032" r:id="rId12" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId7" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1033" r:id="rId13" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>9</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
@@ -1588,157 +1822,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId7" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId8" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId8" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId10" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId10" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId11" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId11" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId12" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId12" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId13" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId13" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId14" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>228600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId14" name="Control 1"/>
+        <control shapeId="1033" r:id="rId13" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -1878,18 +1962,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1911,18 +1995,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0212AA0-43E2-4BC2-A357-30F936639E60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53E850A9-CBCB-45D9-ABD8-A4866B91A60E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0212AA0-43E2-4BC2-A357-30F936639E60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>